--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_16ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_16ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1602,28 +1602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>104.5735428372797</v>
+        <v>146.1461388010308</v>
       </c>
       <c r="AB2" t="n">
-        <v>143.0821347690139</v>
+        <v>199.9635946200826</v>
       </c>
       <c r="AC2" t="n">
-        <v>129.4265766437352</v>
+        <v>180.8793498002664</v>
       </c>
       <c r="AD2" t="n">
-        <v>104573.5428372797</v>
+        <v>146146.1388010308</v>
       </c>
       <c r="AE2" t="n">
-        <v>143082.1347690139</v>
+        <v>199963.5946200826</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.956178697460898e-06</v>
+        <v>4.997566762414337e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.857638888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>129426.5766437353</v>
+        <v>180879.3498002664</v>
       </c>
     </row>
     <row r="3">
@@ -1708,28 +1708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>84.87141544942652</v>
+        <v>116.1148680631686</v>
       </c>
       <c r="AB3" t="n">
-        <v>116.1248148804512</v>
+        <v>158.8734851104009</v>
       </c>
       <c r="AC3" t="n">
-        <v>105.0420255304923</v>
+        <v>143.7108226718447</v>
       </c>
       <c r="AD3" t="n">
-        <v>84871.41544942652</v>
+        <v>116114.8680631686</v>
       </c>
       <c r="AE3" t="n">
-        <v>116124.8148804512</v>
+        <v>158873.4851104009</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.442125560858465e-06</v>
+        <v>5.819084045825215e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.885416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>105042.0255304923</v>
+        <v>143710.8226718447</v>
       </c>
     </row>
   </sheetData>
@@ -2005,28 +2005,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.78121411427836</v>
+        <v>123.9676662998378</v>
       </c>
       <c r="AB2" t="n">
-        <v>128.3155944862708</v>
+        <v>169.6180300988139</v>
       </c>
       <c r="AC2" t="n">
-        <v>116.069334240603</v>
+        <v>153.4299233666306</v>
       </c>
       <c r="AD2" t="n">
-        <v>93781.21411427835</v>
+        <v>123967.6662998378</v>
       </c>
       <c r="AE2" t="n">
-        <v>128315.5944862707</v>
+        <v>169618.0300988139</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.444976000864477e-06</v>
+        <v>5.965978459292176e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.085069444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>116069.334240603</v>
+        <v>153429.9233666306</v>
       </c>
     </row>
     <row r="3">
@@ -2111,28 +2111,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>81.06265690614249</v>
+        <v>111.3343604377225</v>
       </c>
       <c r="AB3" t="n">
-        <v>110.9135034109646</v>
+        <v>152.332583676157</v>
       </c>
       <c r="AC3" t="n">
-        <v>100.3280743135303</v>
+        <v>137.7941756902702</v>
       </c>
       <c r="AD3" t="n">
-        <v>81062.6569061425</v>
+        <v>111334.3604377225</v>
       </c>
       <c r="AE3" t="n">
-        <v>110913.5034109646</v>
+        <v>152332.583676157</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.617454192314502e-06</v>
+        <v>6.264674640232276e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.798611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>100328.0743135303</v>
+        <v>137794.1756902702</v>
       </c>
     </row>
   </sheetData>
@@ -2408,28 +2408,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.90573442578781</v>
+        <v>108.1965151675055</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.3845980984409</v>
+        <v>148.0392453454851</v>
       </c>
       <c r="AC2" t="n">
-        <v>88.99491013960083</v>
+        <v>133.910587544138</v>
       </c>
       <c r="AD2" t="n">
-        <v>71905.73442578781</v>
+        <v>108196.5151675055</v>
       </c>
       <c r="AE2" t="n">
-        <v>98384.59809844091</v>
+        <v>148039.2453454851</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.904769105001074e-06</v>
+        <v>7.388663412830628e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.989583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>88994.91013960083</v>
+        <v>133910.587544138</v>
       </c>
     </row>
   </sheetData>
@@ -2705,28 +2705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.99503698399155</v>
+        <v>103.4849293209085</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.6115181489831</v>
+        <v>141.5926457296768</v>
       </c>
       <c r="AC2" t="n">
-        <v>92.81841887304022</v>
+        <v>128.0792423478011</v>
       </c>
       <c r="AD2" t="n">
-        <v>74995.03698399155</v>
+        <v>103484.9293209085</v>
       </c>
       <c r="AE2" t="n">
-        <v>102611.5181489831</v>
+        <v>141592.6457296768</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.847077438979659e-06</v>
+        <v>7.008539605624203e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.815972222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>92818.41887304021</v>
+        <v>128079.2423478011</v>
       </c>
     </row>
   </sheetData>
@@ -3002,28 +3002,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.67915686062115</v>
+        <v>105.0018554158022</v>
       </c>
       <c r="AB2" t="n">
-        <v>107.6522934960833</v>
+        <v>143.6681709347654</v>
       </c>
       <c r="AC2" t="n">
-        <v>97.3781096957873</v>
+        <v>129.9566823403346</v>
       </c>
       <c r="AD2" t="n">
-        <v>78679.15686062115</v>
+        <v>105001.8554158022</v>
       </c>
       <c r="AE2" t="n">
-        <v>107652.2934960833</v>
+        <v>143668.1709347654</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.841692957672875e-06</v>
+        <v>7.52848040177123e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.319444444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>97378.10969578731</v>
+        <v>129956.6823403346</v>
       </c>
     </row>
   </sheetData>
@@ -3299,28 +3299,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>96.51017843321802</v>
+        <v>126.9520465572453</v>
       </c>
       <c r="AB2" t="n">
-        <v>132.049483860851</v>
+        <v>173.7013908285616</v>
       </c>
       <c r="AC2" t="n">
-        <v>119.4468664538211</v>
+        <v>157.1235738793652</v>
       </c>
       <c r="AD2" t="n">
-        <v>96510.17843321801</v>
+        <v>126952.0465572453</v>
       </c>
       <c r="AE2" t="n">
-        <v>132049.4838608509</v>
+        <v>173701.3908285616</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.308739973770806e-06</v>
+        <v>5.692624944679599e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.276041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>119446.8664538211</v>
+        <v>157123.5738793652</v>
       </c>
     </row>
     <row r="3">
@@ -3405,28 +3405,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>81.78441443782731</v>
+        <v>112.3115339078751</v>
       </c>
       <c r="AB3" t="n">
-        <v>111.9010439075103</v>
+        <v>153.6695955278702</v>
       </c>
       <c r="AC3" t="n">
-        <v>101.2213653311078</v>
+        <v>139.0035850073642</v>
       </c>
       <c r="AD3" t="n">
-        <v>81784.4144378273</v>
+        <v>112311.5339078751</v>
       </c>
       <c r="AE3" t="n">
-        <v>111901.0439075103</v>
+        <v>153669.5955278702</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.602786381507088e-06</v>
+        <v>6.198526263260802e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.763888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>101221.3653311078</v>
+        <v>139003.5850073642</v>
       </c>
     </row>
   </sheetData>
@@ -3702,28 +3702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.48646741865525</v>
+        <v>111.8710284957683</v>
       </c>
       <c r="AB2" t="n">
-        <v>106.0204031838417</v>
+        <v>153.0668765892987</v>
       </c>
       <c r="AC2" t="n">
-        <v>95.90196470457317</v>
+        <v>138.4583887183684</v>
       </c>
       <c r="AD2" t="n">
-        <v>77486.46741865526</v>
+        <v>111871.0284957683</v>
       </c>
       <c r="AE2" t="n">
-        <v>106020.4031838417</v>
+        <v>153066.8765892987</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.742279765560144e-06</v>
+        <v>7.501999964193302e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>95901.96470457317</v>
+        <v>138458.3887183684</v>
       </c>
     </row>
   </sheetData>
@@ -3999,28 +3999,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.8805635210975</v>
+        <v>107.3233187540419</v>
       </c>
       <c r="AB2" t="n">
-        <v>106.5596228574959</v>
+        <v>146.8444994898778</v>
       </c>
       <c r="AC2" t="n">
-        <v>96.38972200937356</v>
+        <v>132.8298665561532</v>
       </c>
       <c r="AD2" t="n">
-        <v>77880.5635210975</v>
+        <v>107323.3187540419</v>
       </c>
       <c r="AE2" t="n">
-        <v>106559.6228574959</v>
+        <v>146844.4994898778</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.762003077951615e-06</v>
+        <v>6.662786993838341e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.737847222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>96389.72200937355</v>
+        <v>132829.8665561532</v>
       </c>
     </row>
     <row r="3">
@@ -4105,28 +4105,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>77.97633911183991</v>
+        <v>107.4190943447843</v>
       </c>
       <c r="AB3" t="n">
-        <v>106.6906672460705</v>
+        <v>146.9755438784524</v>
       </c>
       <c r="AC3" t="n">
-        <v>96.50825970542452</v>
+        <v>132.9484042522042</v>
       </c>
       <c r="AD3" t="n">
-        <v>77976.3391118399</v>
+        <v>107419.0943447843</v>
       </c>
       <c r="AE3" t="n">
-        <v>106690.6672460705</v>
+        <v>146975.5438784524</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.76215234799227e-06</v>
+        <v>6.663051362172135e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.737847222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>96508.25970542453</v>
+        <v>132948.4042522042</v>
       </c>
     </row>
   </sheetData>
@@ -4402,28 +4402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.352036620245</v>
+        <v>111.3586117017215</v>
       </c>
       <c r="AB2" t="n">
-        <v>111.3094455023315</v>
+        <v>152.3657653254508</v>
       </c>
       <c r="AC2" t="n">
-        <v>100.6862282474054</v>
+        <v>137.8241905295261</v>
       </c>
       <c r="AD2" t="n">
-        <v>81352.03662024499</v>
+        <v>111358.6117017215</v>
       </c>
       <c r="AE2" t="n">
-        <v>111309.4455023315</v>
+        <v>152365.7653254507</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.571837189286457e-06</v>
+        <v>6.228972168134116e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.920138888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>100686.2282474054</v>
+        <v>137824.1905295261</v>
       </c>
     </row>
     <row r="3">
@@ -4508,28 +4508,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>80.06920075625867</v>
+        <v>110.0757758377352</v>
       </c>
       <c r="AB3" t="n">
-        <v>109.5542128785022</v>
+        <v>150.6105327016215</v>
       </c>
       <c r="AC3" t="n">
-        <v>99.0985125617094</v>
+        <v>136.2364748438301</v>
       </c>
       <c r="AD3" t="n">
-        <v>80069.20075625867</v>
+        <v>110075.7758377352</v>
       </c>
       <c r="AE3" t="n">
-        <v>109554.2128785022</v>
+        <v>150610.5327016215</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.672143675473186e-06</v>
+        <v>6.403897921361206e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.763888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>99098.5125617094</v>
+        <v>136236.47484383</v>
       </c>
     </row>
   </sheetData>
@@ -4805,28 +4805,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>101.8598305999791</v>
+        <v>143.1241910408043</v>
       </c>
       <c r="AB2" t="n">
-        <v>139.3691139654066</v>
+        <v>195.8288323756168</v>
       </c>
       <c r="AC2" t="n">
-        <v>126.0679213343656</v>
+        <v>177.1392034612358</v>
       </c>
       <c r="AD2" t="n">
-        <v>101859.8305999791</v>
+        <v>143124.1910408043</v>
       </c>
       <c r="AE2" t="n">
-        <v>139369.1139654066</v>
+        <v>195828.8323756168</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.066205683822027e-06</v>
+        <v>5.212346445488176e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.657986111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>126067.9213343656</v>
+        <v>177139.2034612358</v>
       </c>
     </row>
     <row r="3">
@@ -4911,28 +4911,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>83.67974022535117</v>
+        <v>114.6920161968988</v>
       </c>
       <c r="AB3" t="n">
-        <v>114.4943122658716</v>
+        <v>156.9266764151775</v>
       </c>
       <c r="AC3" t="n">
-        <v>103.5671357970229</v>
+        <v>141.9498146661296</v>
       </c>
       <c r="AD3" t="n">
-        <v>83679.74022535117</v>
+        <v>114692.0161968988</v>
       </c>
       <c r="AE3" t="n">
-        <v>114494.3122658716</v>
+        <v>156926.6764151775</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.523921365662051e-06</v>
+        <v>5.990432768878321e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.798611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>103567.1357970229</v>
+        <v>141949.8146661296</v>
       </c>
     </row>
   </sheetData>
@@ -5208,28 +5208,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.00959644925166</v>
+        <v>104.8340355327132</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.999683168556</v>
+        <v>143.4385523670326</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.0740993714473</v>
+        <v>129.7489782464344</v>
       </c>
       <c r="AD2" t="n">
-        <v>76009.59644925167</v>
+        <v>104834.0355327132</v>
       </c>
       <c r="AE2" t="n">
-        <v>103999.683168556</v>
+        <v>143438.5523670326</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.8206163607555e-06</v>
+        <v>6.889475408877965e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.78125</v>
       </c>
       <c r="AH2" t="n">
-        <v>94074.0993714473</v>
+        <v>129748.9782464344</v>
       </c>
     </row>
   </sheetData>
@@ -5505,28 +5505,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>72.97141455548507</v>
+        <v>100.7265760539134</v>
       </c>
       <c r="AB2" t="n">
-        <v>99.84270866638121</v>
+        <v>137.8185450998183</v>
       </c>
       <c r="AC2" t="n">
-        <v>90.3138606814084</v>
+        <v>124.6653365850715</v>
       </c>
       <c r="AD2" t="n">
-        <v>72971.41455548507</v>
+        <v>100726.5760539134</v>
       </c>
       <c r="AE2" t="n">
-        <v>99842.70866638121</v>
+        <v>137818.5450998183</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.89345826750876e-06</v>
+        <v>7.263948611510859e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.911458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>90313.86068140841</v>
+        <v>124665.3365850715</v>
       </c>
     </row>
   </sheetData>
@@ -8815,28 +8815,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.87450344838149</v>
+        <v>106.6897200418387</v>
       </c>
       <c r="AB2" t="n">
-        <v>109.2878194324258</v>
+        <v>145.9775817794393</v>
       </c>
       <c r="AC2" t="n">
-        <v>98.85754333224089</v>
+        <v>132.045686255272</v>
       </c>
       <c r="AD2" t="n">
-        <v>79874.5034483815</v>
+        <v>106689.7200418387</v>
       </c>
       <c r="AE2" t="n">
-        <v>109287.8194324258</v>
+        <v>145977.5817794393</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.887117329473999e-06</v>
+        <v>7.475070772912849e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.128472222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>98857.54333224089</v>
+        <v>132045.686255272</v>
       </c>
     </row>
   </sheetData>
@@ -9112,28 +9112,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.36266058893204</v>
+        <v>118.8003353887499</v>
       </c>
       <c r="AB2" t="n">
-        <v>116.7969581525283</v>
+        <v>162.5478599797163</v>
       </c>
       <c r="AC2" t="n">
-        <v>105.6500203920416</v>
+        <v>147.0345203606514</v>
       </c>
       <c r="AD2" t="n">
-        <v>85362.66058893205</v>
+        <v>118800.3353887499</v>
       </c>
       <c r="AE2" t="n">
-        <v>116796.9581525283</v>
+        <v>162547.8599797164</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.497536859435224e-06</v>
+        <v>7.214017152712269e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.309027777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>105650.0203920416</v>
+        <v>147034.5203606514</v>
       </c>
     </row>
   </sheetData>
@@ -9409,28 +9409,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.39727703195301</v>
+        <v>109.1279549425148</v>
       </c>
       <c r="AB2" t="n">
-        <v>108.634857195725</v>
+        <v>149.3136823378748</v>
       </c>
       <c r="AC2" t="n">
-        <v>98.26689889497243</v>
+        <v>135.063394058658</v>
       </c>
       <c r="AD2" t="n">
-        <v>79397.27703195301</v>
+        <v>109127.9549425148</v>
       </c>
       <c r="AE2" t="n">
-        <v>108634.857195725</v>
+        <v>149313.6823378748</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.680613296650811e-06</v>
+        <v>6.466692370207609e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.807291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>98266.89889497243</v>
+        <v>135063.394058658</v>
       </c>
     </row>
     <row r="3">
@@ -9515,28 +9515,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>78.96648046929322</v>
+        <v>108.697158379855</v>
       </c>
       <c r="AB3" t="n">
-        <v>108.0454223332912</v>
+        <v>148.724247475441</v>
       </c>
       <c r="AC3" t="n">
-        <v>97.73371886853207</v>
+        <v>134.5302140322177</v>
       </c>
       <c r="AD3" t="n">
-        <v>78966.48046929322</v>
+        <v>108697.158379855</v>
       </c>
       <c r="AE3" t="n">
-        <v>108045.4223332912</v>
+        <v>148724.247475441</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.725469401763103e-06</v>
+        <v>6.545502777416332e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.737847222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>97733.71886853207</v>
+        <v>134530.2140322177</v>
       </c>
     </row>
   </sheetData>
@@ -9812,28 +9812,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.0900691087335</v>
+        <v>129.7785380799592</v>
       </c>
       <c r="AB2" t="n">
-        <v>135.5794040998333</v>
+        <v>177.5687212259422</v>
       </c>
       <c r="AC2" t="n">
-        <v>122.6398960594702</v>
+        <v>160.6218116914534</v>
       </c>
       <c r="AD2" t="n">
-        <v>99090.0691087335</v>
+        <v>129778.5380799592</v>
       </c>
       <c r="AE2" t="n">
-        <v>135579.4040998333</v>
+        <v>177568.7212259422</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.185822146950577e-06</v>
+        <v>5.447400835633724e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.467013888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>122639.8960594703</v>
+        <v>160621.8116914534</v>
       </c>
     </row>
     <row r="3">
@@ -9918,28 +9918,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>82.81753222970409</v>
+        <v>113.5912525469503</v>
       </c>
       <c r="AB3" t="n">
-        <v>113.3146012482957</v>
+        <v>155.4205630270538</v>
       </c>
       <c r="AC3" t="n">
-        <v>102.5000147432292</v>
+        <v>140.5874426259246</v>
       </c>
       <c r="AD3" t="n">
-        <v>82817.53222970408</v>
+        <v>113591.2525469503</v>
       </c>
       <c r="AE3" t="n">
-        <v>113314.6012482957</v>
+        <v>155420.5630270538</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.561251339994578e-06</v>
+        <v>6.089342917010344e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.78125</v>
       </c>
       <c r="AH3" t="n">
-        <v>102500.0147432292</v>
+        <v>140587.4426259246</v>
       </c>
     </row>
   </sheetData>
@@ -10215,28 +10215,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.40971288772407</v>
+        <v>134.0140143668881</v>
       </c>
       <c r="AB2" t="n">
-        <v>127.807290118622</v>
+        <v>183.3638867377416</v>
       </c>
       <c r="AC2" t="n">
-        <v>115.6095417283928</v>
+        <v>165.8638947403744</v>
       </c>
       <c r="AD2" t="n">
-        <v>93409.71288772408</v>
+        <v>134014.0143668882</v>
       </c>
       <c r="AE2" t="n">
-        <v>127807.290118622</v>
+        <v>183363.8867377416</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.015538850548082e-06</v>
+        <v>6.463688685155143e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.776041666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>115609.5417283928</v>
+        <v>165863.8947403744</v>
       </c>
     </row>
   </sheetData>
@@ -10512,28 +10512,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.8834085427569</v>
+        <v>102.0181404679947</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.090539074101</v>
+        <v>139.5857205109639</v>
       </c>
       <c r="AC2" t="n">
-        <v>91.44259990635678</v>
+        <v>126.2638552552242</v>
       </c>
       <c r="AD2" t="n">
-        <v>73883.40854275689</v>
+        <v>102018.1404679947</v>
       </c>
       <c r="AE2" t="n">
-        <v>101090.539074101</v>
+        <v>139585.7205109639</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.895652580667791e-06</v>
+        <v>7.177477060084303e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.824652777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>91442.59990635677</v>
+        <v>126263.8552552242</v>
       </c>
     </row>
   </sheetData>
@@ -10809,28 +10809,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.92338325826951</v>
+        <v>106.0646759809762</v>
       </c>
       <c r="AB2" t="n">
-        <v>105.2499665940824</v>
+        <v>145.12236892037</v>
       </c>
       <c r="AC2" t="n">
-        <v>95.20505750162567</v>
+        <v>131.2720937111732</v>
       </c>
       <c r="AD2" t="n">
-        <v>76923.3832582695</v>
+        <v>106064.6759809762</v>
       </c>
       <c r="AE2" t="n">
-        <v>105249.9665940824</v>
+        <v>145122.3689203699</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.799782202558737e-06</v>
+        <v>6.788033603299483e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.746527777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>95205.05750162568</v>
+        <v>131272.0937111732</v>
       </c>
     </row>
   </sheetData>
